--- a/reports/Mixtral-8x22B-v0.1-FP-FN.xlsx
+++ b/reports/Mixtral-8x22B-v0.1-FP-FN.xlsx
@@ -1,38 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kuk\kuk-praxis-hephaestus\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B40B2C-0242-4579-AB83-6D2EF7F89ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="False Positives" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="False Negatives" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="False Positives" sheetId="1" r:id="rId1"/>
+    <sheet name="False Negatives" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After trading for Da’Quan Bowers earlier this offseason, the Miami Dolphins had plenty of opportunities to upgrade their secondary. The Dolphins also selected a talented cornerback and a linebacker for Mike Pouncey. While there have been rumors of that happening, many coaches are skeptical that this roster will be a strong one, so they could have another hole to fill.
+After the trade for Bowers, the Dolphins could probably look at what the outside market brings in. While the Colts, Redskins, Eagles, and Lions have been a steady and consistent expansion franchise with a “good” bunch of receivers to build around, these teams lack the consistency and depth that would benefit them. They could at least look at a defensive player like Eric Rowe.
+With only the top five cornerbacks to build around, Rowe’s presence could be a valuable addition to the secondary.
+Let’s take a look at how the secondary currently is stacked.
+Eric Rowe – Former #Baylor GSW: No “Trades”
+Eric Rowe – Detroit Lions
+Scott Chandler – Washington Redskins
+I should be stating the obvious, but at the end of the day, this is the same same duo that helped bring in Andrew Luck and Calvin Johnson, and now is called the “third man” for the Dolphins.
+Brady Quinn, Mitchell Trubisky, and Ryan Tannehill have shown solid performances for the Lions, but they have been inconsistent in the secondary. As expected, Kendall Wright is locked in as the third cornerback, but Reid may be able to make the transition.
+If Trubisky can’t continue to reach elite status, they could be looking at a trade. If it’s not Trubisky, the Lions will likely look to sign a free agent or trade that receiver to their team for the services of Quinn.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEHRAN – Iraqi Foreign Minister Adel Abdul Mahdi met his Iranian counterpart in Tehran on Friday to discuss ways to help Iranian flood-stricken people, IRNA reported.
+Ali Akbar Salehi and Abdul Mahdi held a “tumultuous” meeting in Tehran’s Qods Square attended by embassy staff, Central Bank and Finance Ministry officials.
+Iraq’s Oil Minister Jabar al-Luaibi asked the Iraqi side to cooperate with Iran in the disaster relief in northern Iran.
+Salehi told Abdul Mahdi that during the last 4-5 days, 3.4 million of the 8.7 million people who have been affected in the flood of northern Iran have reached the Iraqi border.
+Tributes, prayers poured on highways in Iran after flood waters reached flood-stricken areas in several provinces on April 8 and 9.
+Qatari Emir Sheikh Tamim bin Hamad Al Thani (the highest-ranking ruler of Iran) has also visited the flood-stricken areas and prayed for the “peace and well-being of those who have been affected”.
+The head of the Supreme National Security Council Ayatollah Sadeq Larijani visited the affected areas in Baghdad and offered his condolences.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bold and the Beautiful recap for Tuesday, February 12, states that Zoe Buckingham (Kiara Barnes) interrogated Florence Fulton (Kiara Barnes) about the baby. She wanted to know if she was the biological mother of Steffy Forrester’s (Jacqueline MacInnes Wood) baby. Flo did not answer her question and said that she needed to get on with her day, per Soap Central.
+Flo revealed that the reason Reese Buckingham (Wayne Brady) wanted to keep his involvement a secret was because Zoe worked at Forrester Creations. He did not want to create any problems for her at work. Flo wanted the apartment key back but Zoe refused. She said that she would be back if she wanted to know anything. After Zoe left, Flo texted Reese that she needed to speak to him about Zoe.
+At the cliff house, Hope Logan Spencer (Annika Noelle) told Liam (Scott Clifton) and Steffy about her feelings concerning Phoebe (Isabelle De Armas and Redford Prindiville). She admitted to thinking about Beth when she held the infant but did not feel the enormous sense of loss while holding her.
+After Hope left, Liam and Steffy talked about Hope’s attachment to the baby. Steffy said that Hope should be Liam’s priority since she was still recovering from the stillbirth. He told her that the only thing which seemed to make Hope stronger was seeing Beth. Steffy was concerned that Hope was not dealing with her feelings of loss, per She Knows Soaps. Liam felt that Phoebe was helping Hope cope for now.
+Little do they know this is their family. ♥️ Do you think Hope and Liam will ever find out the truth? #BoldandBeautiful pic.twitter.com/CdEpe1pnhu — Bold &amp; The Beautiful (@BandB_CBS) February 12, 2019
+Zoe went back to work. She discussed what she had learned with Xander Avant (Adain Bradley). Zoe told her boyfriend that she had found the adoption papers for Steffy’s newly adopted daughter. Xander was stunned when he learned that Steffy had signed the adoption papers. They both thought that Flo was Phoebe’s biological mother.
+Brooke (Katherine Kelly Lang) and Ridge (Thorsten Kaye) were at the cabin. Brooke was arranging some flowers for Hope because she wanted to do something for her. She then felt it was a silly gesture, but Ridge understood her need to comfort her daughter.
+Hope arrived and wanted to know what was happening. Brooke explained that she wanted to do something that sparked joy for her. Hope said that the only thing that brought any joy in her life was Phoebe. She explained her feelings.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTREAL — Investors will have the opportunity to participate Wednesday, May, 10, 2018, during a community teleconference hosted by Emera , the leading independent natural resource infrastructure company.
+The interactive teleconference will begin at 1 p.m. EDT (10 a.m. ET) and be available to interested parties experiencing technical difficulties. To access the live webcast, please go to the investor relations section of Emera’s website, www.emerya.com, and click on the link. A replay will be available following the presentation. Investors and other interested parties will be able to listen to the event via phone by dialing +1 (877) 668-4133 or +1 (970) 315-0689. A telephone replay will be available for seven days. The conference call will also be webcast live at the following website: website link: http://investor.emerya.com
+The objective of Emera’s Investor Day is to provide a wide variety of ongoing investments and interactive meetings with stockholders, directors and other business representatives. This is an opportunity for investors and analysts to understand Emera’s investing philosophy, operations and corporate outlook, as well as the strategic direction and plans for the industry, including the Company’s investments and how it has responded to changing industry dynamics.
+For more information, please refer to:
+http://eragrill.com/GreenDemos/Investor-Diversity/view/51083
+https://www.emerya.com/on-r-giant/investoration-programs
+The information contained on this website is neither an historical fact nor a recommendation to buy or sell stocks. There must be present not more than 325 days prior to the event to read this prospectus/statements, and there cannot be any allegation that the information you are seeking is inadequate or that any subsequent disclosures are inadequate or that other information provided or any information about the event(s) is inaccurate.
+Any company issue or prospectus relied upon or made available on this website is not comprehensive nor verified at all for its financial performance or accuracy. Investor guidance provided with investor proxy statements or this prospectus/statements or other information furnished on the webcast is provided on the basis of such executive officer-approved information.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People living in the world's most famous theme park can enjoy perks outside of the ticket price this year, including tickets to some historical events at Walt Disney World and VIP cruises on Discovery Island and Pirates of the Caribbean.
+Select Walt Disney World Passholders can buy tickets to the Epcot International Flower &amp; Garden Festival; Spark Plug Day on May 23; and United's United Legacy Pass every day of the July 4th weekend on Discovery Island and Pirates of the Caribbean. Passholders get free dining and parking.
+These events will run while the other three major theme parks are closed for renovations or maintenance:
+Pirates of the Caribbean
+July 4-6: Sneak peek at the Pirates of the Caribbean set-piece experience, which is coming to the Magic Kingdom's Frontierland. This will include an opportunity to meet with a pirate and interact with cartoon characters.
+Discovery Island
+June 5-July 19: Visitors can walk through the pirate-themed Warehouse Buffet, meet characters and enjoy the ride Music Shows. They also can take a special in-park pirate tour every day and check out the in-house, pirate-themed wedding chapel.
+File Photo Panera has opened a bakery-cafe at Walt Disney World in Florida. Panera has opened a bakery-cafe at Walt Disney World in Florida. (File Photo)
+Planning a wedding in Lake Buena Vista? (Hmm … are they actually legal?)
+Hosting a party with up to 100 guests at dinner or for tea at the Flower &amp; Garden Festival?
+You can rent a table for up to 100 guests at the Jell-O booth in the Grapevine Courtyard from 6 to 10 p.m.
+Walt Disney World planters
+Theme park bathrooms will open six hours later in the garden areas of Walt Disney World as part of an effort to save water.
+"We realize it is a large amount of water and our guests and employees would appreciate having one more hour to recuperate after coming out of the gardens and visiting various experiences," said Disney World spokeswoman Jacquee Wahler in an email to the Orlando Sentinel.
+The restrooms will open at 1 p.m. Monday through Friday instead of 8 a.m.
+Plant manager Terri Bergfels announced the added watering hours on her Facebook page.
+"Last year we found several shade plants that were too dry and needed to be given another watering before we left," Bergfels said. "This year we will do the same and leave for one more watering. This is the first year we are doing this and we are trying to preserve the water in the garden areas and plant the plants with the irrigation so that they will flourish."
+Wag the Dog Funeral Services planned a drunken funeral for SpongeBob SquarePants in a competition with other parks.
+The contest was canceled after some judges voiced opposition. A second contest held in March came after it was canceled.
+Back-to-school shopping is going out of style
+Walt Disney World's new theme park stores, aimed at teenagers, are offering coupons for discounts of up to 30 percent on clothing, accessories and lunch-ticket renewals.
+The price-cut coupons on the Disney Parks app for purchases made between April 1 and June 30 start at $6 for merchandise for boys.
+Individual stores vary in the coupon, but two examples: On Mondays, teens can get 60 percent off merchandise at stores that include Sofia's Emporium and Mall Davy Jones' Undersea Lodge. On Saturdays, boys can get 45 percent off apparel from stores including Crooks &amp; Castles and Vault.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certified stroke centers more likely to give clot-busting drugs
+Study Highlights:
+Stroke patients are three times more likely to receive clot-busting medication if they’re treated at a hospital certified as a primary stroke center.
+There is a limited window of opportunity for using the drugs, so getting to a hospital quickly for treatment is important.
+Call 9-1-1 at the first sign of stroke symptoms.
+Intravenous tissue plasminogen activator (tPA) is the only drug approved by the Food and Drug Administration for emergency treatment for people who have ischemic (clot-caused) stroke. The durg can reduce stroke disability.
+“The stroke center concept has rapidly taken off, and this data demonstrates one way that certified centers are doing better than non-certified centers,” said Michael T. Mullen, M.D., the study’s lead author and an assistant professor of neurology at the Perelman School of Medicine at the University of Pennsylvania in Philadelphia.
+The researchers examined hospital discharge data on 323,228 ischemic stroke patients from 26 states in 2004-09.
+The clot-buster was administered to:
+3.1 percent of patients overall;
+6.7 percent of patients at primary stroke centers certified by the Joint Commission; and
+2.2 percent of patients at other facilities.
+After researchers adjusted for patient and facility characteristics, they found the likelihood of receiving tPA was still almost twice as high in certified stroke centers.
+Over time, tPA use increased from 6 percent to 7.6 percent at certified primary stroke centers and 1.4 percent to 3.3 percent at non-certified hospitals.
+During a stroke, blood flow must be restored quickly and tPA can only be administered in the first few hours after symptoms start.
+“Between 10 percent to 15 percent of patients arriving at the hospital with ischemic strokes are eligible to receive tPA,” said Eric Smith, M.D., chair of the American Heart Association/American Stroke Association’s Get With The Guidelines®-Stroke quality improvement program and an associate professor of neurology at the University of Calgary. “This research shows that the certification program seems to be working, and that treatment is improving over time. Unlike the improvement in the percentage of patients receiving tPA, we haven’t seen comparable improvements in the speed at which patients are evaluated and treated, and that is a major factor in determining outcome.”
+The American Heart Association/American Stroke Association’s Target: Stroke program helps hospitals treat 50 percent or more of patients within the first hour after they arrive.
+In conjunction with The Joint Commission, the association also offers certification to facilities that meet criteria as Comprehensive Stroke Centers.
+“We need more complete systems of care to make sure patients are getting to the best facility to treat their stroke — and getting there as quickly as possible,” Smith said.
+At the first sign of a stroke, call 9-1-1 to get to the facility that provides appropriate treatment. The American Stroke Association has more information and tools, including a new mobile app, that can help you recognize and respond to stroke symptoms.
+Co-authors are Scott Kasner, M.D.; Michael Kallan, M.S.; Dawn Kleindorfer, M.D.; Karen Albright, D.O., M.P.H.; and Brendan Carr, M.D., M.S. Author disclosures are on the manuscript.
+The Agency for Health Care Research and Quality, National Institutes of Health, funded the research.
+For the latest heart and stroke news, follow @HeartNews on Twitter. For science updates from the Journal of the American Heart Association, follow @jaha_aha on Twitter and “like” JAHA on Facebook.
+###
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,93 +162,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,169 +492,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="176" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>659</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">After trading for Da’Quan Bowers earlier this offseason, the Miami Dolphins had plenty of opportunities to upgrade their secondary. The Dolphins also selected a talented cornerback and a linebacker for Mike Pouncey. While there have been rumors of that happening, many coaches are skeptical that this roster will be a strong one, so they could have another hole to fill.
-After the trade for Bowers, the Dolphins could probably look at what the outside market brings in. While the Colts, Redskins, Eagles, and Lions have been a steady and consistent expansion franchise with a “good” bunch of receivers to build around, these teams lack the consistency and depth that would benefit them. They could at least look at a defensive player like Eric Rowe.
-With only the top five cornerbacks to build around, Rowe’s presence could be a valuable addition to the secondary.
-Let’s take a look at how the secondary currently is stacked.
-Eric Rowe – Former #Baylor GSW: No “Trades”
-Eric Rowe – Detroit Lions
-Scott Chandler – Washington Redskins
-I should be stating the obvious, but at the end of the day, this is the same same duo that helped bring in Andrew Luck and Calvin Johnson, and now is called the “third man” for the Dolphins.
-Brady Quinn, Mitchell Trubisky, and Ryan Tannehill have shown solid performances for the Lions, but they have been inconsistent in the secondary. As expected, Kendall Wright is locked in as the third cornerback, but Reid may be able to make the transition.
-If Trubisky can’t continue to reach elite status, they could be looking at a trade. If it’s not Trubisky, the Lions will likely look to sign a free agent or trade that receiver to their team for the services of Quinn.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1082</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TEHRAN – Iraqi Foreign Minister Adel Abdul Mahdi met his Iranian counterpart in Tehran on Friday to discuss ways to help Iranian flood-stricken people, IRNA reported.
-Ali Akbar Salehi and Abdul Mahdi held a “tumultuous” meeting in Tehran’s Qods Square attended by embassy staff, Central Bank and Finance Ministry officials.
-Iraq’s Oil Minister Jabar al-Luaibi asked the Iraqi side to cooperate with Iran in the disaster relief in northern Iran.
-Salehi told Abdul Mahdi that during the last 4-5 days, 3.4 million of the 8.7 million people who have been affected in the flood of northern Iran have reached the Iraqi border.
-Tributes, prayers poured on highways in Iran after flood waters reached flood-stricken areas in several provinces on April 8 and 9.
-Qatari Emir Sheikh Tamim bin Hamad Al Thani (the highest-ranking ruler of Iran) has also visited the flood-stricken areas and prayed for the “peace and well-being of those who have been affected”.
-The head of the Supreme National Security Council Ayatollah Sadeq Larijani visited the affected areas in Baghdad and offered his condolences.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1334</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bold and the Beautiful recap for Tuesday, February 12, states that Zoe Buckingham (Kiara Barnes) interrogated Florence Fulton (Kiara Barnes) about the baby. She wanted to know if she was the biological mother of Steffy Forrester’s (Jacqueline MacInnes Wood) baby. Flo did not answer her question and said that she needed to get on with her day, per Soap Central.
-Flo revealed that the reason Reese Buckingham (Wayne Brady) wanted to keep his involvement a secret was because Zoe worked at Forrester Creations. He did not want to create any problems for her at work. Flo wanted the apartment key back but Zoe refused. She said that she would be back if she wanted to know anything. After Zoe left, Flo texted Reese that she needed to speak to him about Zoe.
-At the cliff house, Hope Logan Spencer (Annika Noelle) told Liam (Scott Clifton) and Steffy about her feelings concerning Phoebe (Isabelle De Armas and Redford Prindiville). She admitted to thinking about Beth when she held the infant but did not feel the enormous sense of loss while holding her.
-After Hope left, Liam and Steffy talked about Hope’s attachment to the baby. Steffy said that Hope should be Liam’s priority since she was still recovering from the stillbirth. He told her that the only thing which seemed to make Hope stronger was seeing Beth. Steffy was concerned that Hope was not dealing with her feelings of loss, per She Knows Soaps. Liam felt that Phoebe was helping Hope cope for now.
-Little do they know this is their family. ♥️ Do you think Hope and Liam will ever find out the truth? #BoldandBeautiful pic.twitter.com/CdEpe1pnhu — Bold &amp; The Beautiful (@BandB_CBS) February 12, 2019
-Zoe went back to work. She discussed what she had learned with Xander Avant (Adain Bradley). Zoe told her boyfriend that she had found the adoption papers for Steffy’s newly adopted daughter. Xander was stunned when he learned that Steffy had signed the adoption papers. They both thought that Flo was Phoebe’s biological mother.
-Brooke (Katherine Kelly Lang) and Ridge (Thorsten Kaye) were at the cabin. Brooke was arranging some flowers for Hope because she wanted to do something for her. She then felt it was a silly gesture, but Ridge understood her need to comfort her daughter.
-Hope arrived and wanted to know what was happening. Brooke explained that she wanted to do something that sparked joy for her. Hope said that the only thing that brought any joy in her life was Phoebe. She explained her feelings.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1401</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MONTREAL — Investors will have the opportunity to participate Wednesday, May, 10, 2018, during a community teleconference hosted by Emera , the leading independent natural resource infrastructure company.
-The interactive teleconference will begin at 1 p.m. EDT (10 a.m. ET) and be available to interested parties experiencing technical difficulties. To access the live webcast, please go to the investor relations section of Emera’s website, www.emerya.com, and click on the link. A replay will be available following the presentation. Investors and other interested parties will be able to listen to the event via phone by dialing +1 (877) 668-4133 or +1 (970) 315-0689. A telephone replay will be available for seven days. The conference call will also be webcast live at the following website: website link: http://investor.emerya.com
-The objective of Emera’s Investor Day is to provide a wide variety of ongoing investments and interactive meetings with stockholders, directors and other business representatives. This is an opportunity for investors and analysts to understand Emera’s investing philosophy, operations and corporate outlook, as well as the strategic direction and plans for the industry, including the Company’s investments and how it has responded to changing industry dynamics.
-For more information, please refer to:
-http://eragrill.com/GreenDemos/Investor-Diversity/view/51083
-https://www.emerya.com/on-r-giant/investoration-programs
-The information contained on this website is neither an historical fact nor a recommendation to buy or sell stocks. There must be present not more than 325 days prior to the event to read this prospectus/statements, and there cannot be any allegation that the information you are seeking is inadequate or that any subsequent disclosures are inadequate or that other information provided or any information about the event(s) is inaccurate.
-Any company issue or prospectus relied upon or made available on this website is not comprehensive nor verified at all for its financial performance or accuracy. Investor guidance provided with investor proxy statements or this prospectus/statements or other information furnished on the webcast is provided on the basis of such executive officer-approved information.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2322</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">People living in the world's most famous theme park can enjoy perks outside of the ticket price this year, including tickets to some historical events at Walt Disney World and VIP cruises on Discovery Island and Pirates of the Caribbean.
-Select Walt Disney World Passholders can buy tickets to the Epcot International Flower &amp; Garden Festival; Spark Plug Day on May 23; and United's United Legacy Pass every day of the July 4th weekend on Discovery Island and Pirates of the Caribbean. Passholders get free dining and parking.
-These events will run while the other three major theme parks are closed for renovations or maintenance:
-Pirates of the Caribbean
-July 4-6: Sneak peek at the Pirates of the Caribbean set-piece experience, which is coming to the Magic Kingdom's Frontierland. This will include an opportunity to meet with a pirate and interact with cartoon characters.
-Discovery Island
-June 5-July 19: Visitors can walk through the pirate-themed Warehouse Buffet, meet characters and enjoy the ride Music Shows. They also can take a special in-park pirate tour every day and check out the in-house, pirate-themed wedding chapel.
-File Photo Panera has opened a bakery-cafe at Walt Disney World in Florida. Panera has opened a bakery-cafe at Walt Disney World in Florida. (File Photo)
-Planning a wedding in Lake Buena Vista? (Hmm … are they actually legal?)
-Hosting a party with up to 100 guests at dinner or for tea at the Flower &amp; Garden Festival?
-You can rent a table for up to 100 guests at the Jell-O booth in the Grapevine Courtyard from 6 to 10 p.m.
-Walt Disney World planters
-Theme park bathrooms will open six hours later in the garden areas of Walt Disney World as part of an effort to save water.
-"We realize it is a large amount of water and our guests and employees would appreciate having one more hour to recuperate after coming out of the gardens and visiting various experiences," said Disney World spokeswoman Jacquee Wahler in an email to the Orlando Sentinel.
-The restrooms will open at 1 p.m. Monday through Friday instead of 8 a.m.
-Plant manager Terri Bergfels announced the added watering hours on her Facebook page.
-"Last year we found several shade plants that were too dry and needed to be given another watering before we left," Bergfels said. "This year we will do the same and leave for one more watering. This is the first year we are doing this and we are trying to preserve the water in the garden areas and plant the plants with the irrigation so that they will flourish."
-Wag the Dog Funeral Services planned a drunken funeral for SpongeBob SquarePants in a competition with other parks.
-The contest was canceled after some judges voiced opposition. A second contest held in March came after it was canceled.
-Back-to-school shopping is going out of style
-Walt Disney World's new theme park stores, aimed at teenagers, are offering coupons for discounts of up to 30 percent on clothing, accessories and lunch-ticket renewals.
-The price-cut coupons on the Disney Parks app for purchases made between April 1 and June 30 start at $6 for merchandise for boys.
-Individual stores vary in the coupon, but two examples: On Mondays, teens can get 60 percent off merchandise at stores that include Sofia's Emporium and Mall Davy Jones' Undersea Lodge. On Saturdays, boys can get 45 percent off apparel from stores including Crooks &amp; Castles and Vault.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>3748</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certified stroke centers more likely to give clot-busting drugs
-Study Highlights:
-Stroke patients are three times more likely to receive clot-busting medication if they’re treated at a hospital certified as a primary stroke center.
-There is a limited window of opportunity for using the drugs, so getting to a hospital quickly for treatment is important.
-Call 9-1-1 at the first sign of stroke symptoms.
-Intravenous tissue plasminogen activator (tPA) is the only drug approved by the Food and Drug Administration for emergency treatment for people who have ischemic (clot-caused) stroke. The durg can reduce stroke disability.
-“The stroke center concept has rapidly taken off, and this data demonstrates one way that certified centers are doing better than non-certified centers,” said Michael T. Mullen, M.D., the study’s lead author and an assistant professor of neurology at the Perelman School of Medicine at the University of Pennsylvania in Philadelphia.
-The researchers examined hospital discharge data on 323,228 ischemic stroke patients from 26 states in 2004-09.
-The clot-buster was administered to:
-3.1 percent of patients overall;
-6.7 percent of patients at primary stroke centers certified by the Joint Commission; and
-2.2 percent of patients at other facilities.
-After researchers adjusted for patient and facility characteristics, they found the likelihood of receiving tPA was still almost twice as high in certified stroke centers.
-Over time, tPA use increased from 6 percent to 7.6 percent at certified primary stroke centers and 1.4 percent to 3.3 percent at non-certified hospitals.
-During a stroke, blood flow must be restored quickly and tPA can only be administered in the first few hours after symptoms start.
-“Between 10 percent to 15 percent of patients arriving at the hospital with ischemic strokes are eligible to receive tPA,” said Eric Smith, M.D., chair of the American Heart Association/American Stroke Association’s Get With The Guidelines®-Stroke quality improvement program and an associate professor of neurology at the University of Calgary. “This research shows that the certification program seems to be working, and that treatment is improving over time. Unlike the improvement in the percentage of patients receiving tPA, we haven’t seen comparable improvements in the speed at which patients are evaluated and treated, and that is a major factor in determining outcome.”
-The American Heart Association/American Stroke Association’s Target: Stroke program helps hospitals treat 50 percent or more of patients within the first hour after they arrive.
-In conjunction with The Joint Commission, the association also offers certification to facilities that meet criteria as Comprehensive Stroke Centers.
-“We need more complete systems of care to make sure patients are getting to the best facility to treat their stroke — and getting there as quickly as possible,” Smith said.
-At the first sign of a stroke, call 9-1-1 to get to the facility that provides appropriate treatment. The American Stroke Association has more information and tools, including a new mobile app, that can help you recognize and respond to stroke symptoms.
-Co-authors are Scott Kasner, M.D.; Michael Kallan, M.S.; Dawn Kleindorfer, M.D.; Karen Albright, D.O., M.P.H.; and Brendan Carr, M.D., M.S. Author disclosures are on the manuscript.
-The Agency for Health Care Research and Quality, National Institutes of Health, funded the research.
-For the latest heart and stroke news, follow @HeartNews on Twitter. For science updates from the Journal of the American Heart Association, follow @jaha_aha on Twitter and “like” JAHA on Facebook.
-###
-</t>
-        </is>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -592,29 +566,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
